--- a/Sachintha_rate_adj.xlsx
+++ b/Sachintha_rate_adj.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\AF_Ai\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\AF_Ai\rate_optimizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508A925B-0B80-4C93-82AA-B357723EC4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607CAB14-13A9-4A3F-B40C-E8150F6246FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E5AAD289-480A-4EC0-9A2B-D1197C3358F6}"/>
   </bookViews>
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E41BEC-ED47-43FB-9F6D-661071A6507E}">
   <dimension ref="A3:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -502,7 +502,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -527,13 +527,13 @@
       </c>
       <c r="B15" s="3">
         <f>B12*(1-B3*(1-B7)-B4*B8+B5*LOG(1+(B9/B10)))</f>
-        <v>0.23708114093626048</v>
+        <v>0.2855644938911</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <f>B12 * (1 - B3 * (1 - B7) - B4 * B8 + B5 * LOG(1 + B9 / B10))</f>
-        <v>0.23708114093626048</v>
+        <v>0.2855644938911</v>
       </c>
     </row>
   </sheetData>
